--- a/medicine/Pharmacie/Sigma-Tau/Sigma-Tau.xlsx
+++ b/medicine/Pharmacie/Sigma-Tau/Sigma-Tau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sigma-Tau industrie farmaceutiche riunite S.p.A est une entreprise pharmaceutique italienne fondée en 1957 par Claudio Cavazza, dont le siège se trouve à Rome, et le centre de recherches à Pomezia, dans la province de Rome. Elle possède des filiales dans de nombreux pays, notamment aux États-Unis (Sigma-Tau Pharmaceuticals, Inc.), basée à Gaithersburg, dans le comté de Montgomery, dans l’État du Maryland.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigma-Tau industrie farmaceutiche riunite (les industries pharmaceutiques réunies Sigma-Tau) sont nées en 1957 à l'initiative du chimiste et chercheur Claudio Cavazza. L'entreprise s'est fortement développée après la conception et le lancement, en septembre 1966, du complexe vitaminé Rekord B12, médicament antiasthénique prescrit dans le domaine des traitements reconstituants pédiatriques.
 À partir des années soixante, Sigma-Tau s’est concentrée sur l’expérimentation de nouveaux médicaments pour maladies rares : cet engagement valut à la société, en 1984, de devenir la quatrième entreprise pharmaceutique au monde à recevoir la Orphan Drug Designation aux États-Unis, distinction qu’elle reçut sept autres fois après cela.
@@ -546,7 +560,9 @@
           <t>Structure du groupe Sigma-Tau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe Sigma-Tau  a atteint un chiffre d’affaires de 697 millions d’Euros en 2013, emploie 1919 salariés et possède un portefeuille d’environ 100 produits commercialisés en Italie et à l’étranger. De 1988 à aujourd’hui, il a enregistré environ 300 brevets, confirmant sa position comme l’une des entreprises nationales à capital entièrement italien en tant qu’acteur dans l’enregistrement de nouvelles molécules ou d’importantes innovations technologiques.
 Le groupe Sigma-Tau est présent dans le monde avec des filiales en France, en Suisse, aux Pays-Bas, en Belgique, en Allemagne, au Royaume-Uni et en Inde, ainsi que deux établissements de production aux États-Unis et en Espagne. En janvier 2010, le groupe Sigma-Tau a repris la branche pharmaceutique de la société américaine Enzon, plus précisément 4 produits pour le traitement de maladies rares dans le secteur de l’oncologie et un établissement de production à Indianapolis, dans l’Indiana, qui relève directement de la filiale américaine, la Sigma-Tau Pharmaceuticals Inc., avec son siège social à Gaithersburg, dans le Maryland, filiale chargée de commercialiser les produits achetés sur le marché américain.
